--- a/services/limbless-app/static/resources/templates/library_prep/RNA.xlsx
+++ b/services/limbless-app/static/resources/templates/library_prep/RNA.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agynter/dev/limbless-app-dev/services/limbless-app/static/resources/templates/library_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4593E-68FA-9348-9CB3-945D740DB35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F17E54-6C25-C740-A76A-893ACD6F13B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51800" yWindow="3400" windowWidth="36980" windowHeight="22900" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
+    <workbookView xWindow="36420" yWindow="3960" windowWidth="36980" windowHeight="22900" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="1" r:id="rId1"/>
     <sheet name="checklist" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="111">
   <si>
-    <t>R0</t>
-  </si>
-  <si>
     <t>RIN</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>requestor</t>
+  </si>
+  <si>
+    <t>sample_num</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
   <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,91 +955,91 @@
   <sheetData>
     <row r="1" spans="1:29" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="33" t="s">
+      <c r="S1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="33" t="s">
         <v>20</v>
-      </c>
-      <c r="AB1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -5773,54 +5773,54 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5829,27 +5829,27 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="16">
         <f>ROUND(((11.5*D9)/20),1)</f>
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="17">
         <v>8</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="17">
         <v>2</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="17">
         <v>10</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="20">
         <f>SUM(C12:C14)</f>
@@ -5898,42 +5898,42 @@
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="21">
         <f>D15/12</f>
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="D22" s="22">
         <f>D9</f>
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="17">
         <v>20</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="17">
         <v>100</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="20">
         <v>120</v>
@@ -5969,23 +5969,23 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -6004,28 +6004,28 @@
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="14">
         <v>100</v>
@@ -6035,14 +6035,14 @@
         <v>0</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="14">
         <v>50</v>
@@ -6052,14 +6052,14 @@
         <v>0</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="14">
         <v>200</v>
@@ -6079,7 +6079,7 @@
     <row r="37" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
       <c r="B37" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="14">
         <v>200</v>
@@ -6099,7 +6099,7 @@
     <row r="38" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
       <c r="B38" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="14">
         <v>50</v>
@@ -6119,7 +6119,7 @@
     <row r="39" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="14">
         <v>50</v>
@@ -6139,7 +6139,7 @@
     <row r="40" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
       <c r="B40" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="14">
         <v>200</v>
@@ -6158,47 +6158,47 @@
     </row>
     <row r="43" spans="1:6" s="10" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="C43" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="C45" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="17">
         <v>10</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="17">
         <v>8</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="17">
         <v>2</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="20">
         <f>SUM(C46:C48)</f>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="30">
         <f>(D47+D48)/12</f>
@@ -6241,61 +6241,61 @@
     </row>
     <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B61" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D61" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="17">
         <v>20</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B63" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="17">
         <v>8</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B64" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="17">
         <v>4</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B65" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="17">
         <v>48</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="20">
         <f>SUM(C62:C65)</f>
@@ -6341,65 +6341,65 @@
     </row>
     <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" s="30">
         <f>(D63+D64)/12</f>
         <v>0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="30">
         <f>D65/12</f>
         <v>0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B75" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="17">
         <v>50</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B76" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" s="17">
         <v>7</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="17">
         <v>3</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B78" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C78" s="20">
         <v>60</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B80" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80" s="30">
         <f>(D76+D77)/12</f>
@@ -6441,67 +6441,67 @@
     </row>
     <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B82" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B83" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B84" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B89" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D89" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B90" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="17">
         <v>60</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B91" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="17">
         <v>2.5</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="17">
         <v>1</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B93" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="17">
         <v>30</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B94" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C94" s="20">
         <f>SUM(C90:C93)</f>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C96" s="30">
         <f>(D92+D93)/12</f>
@@ -6544,28 +6544,28 @@
     </row>
     <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B100" s="14"/>
       <c r="C100" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D100" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="17">
         <v>3</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C103" s="30">
         <f>(D101)/12</f>
@@ -6586,44 +6586,44 @@
     </row>
     <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="31" t="s">
         <v>100</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B108" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="D108" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B109" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="17">
         <v>7.5</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B110" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="17">
         <v>12.5</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B111" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="17">
         <v>5</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B112" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" s="20">
         <f>SUM(C109:C111)</f>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="114" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B114" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C114" s="30">
         <f>(D110+D111)/12</f>

--- a/services/limbless-app/static/resources/templates/library_prep/RNA.xlsx
+++ b/services/limbless-app/static/resources/templates/library_prep/RNA.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agynter/dev/limbless-app-dev/services/limbless-app/static/resources/templates/library_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F17E54-6C25-C740-A76A-893ACD6F13B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBFDF29-4370-9541-BB53-B25A822C35B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36420" yWindow="3960" windowWidth="36980" windowHeight="22900" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
+    <workbookView xWindow="43500" yWindow="7000" windowWidth="36980" windowHeight="22900" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="1" r:id="rId1"/>
     <sheet name="checklist" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,9 +90,6 @@
     <t>name_i5</t>
   </si>
   <si>
-    <t>library_ng_ul</t>
-  </si>
-  <si>
     <t>pooling_factor</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>sample_num</t>
+  </si>
+  <si>
+    <t>lib_conc_ng_ul</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CEC1DF-8ED0-B840-A178-84D3EE75C042}">
   <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,19 +955,19 @@
   <sheetData>
     <row r="1" spans="1:29" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>2</v>
@@ -1006,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S1" s="33" t="s">
         <v>14</v>
@@ -1015,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V1" s="33" t="s">
         <v>16</v>
@@ -1024,22 +1024,22 @@
         <v>15</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="Y1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="33" t="s">
         <v>18</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>19</v>
       </c>
       <c r="AB1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="AC1" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -5773,54 +5773,54 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5829,27 +5829,27 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="16">
         <f>ROUND(((11.5*D9)/20),1)</f>
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="17">
         <v>8</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="17">
         <v>2</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="17">
         <v>10</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="20">
         <f>SUM(C12:C14)</f>
@@ -5898,42 +5898,42 @@
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="21">
         <f>D15/12</f>
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="D22" s="22">
         <f>D9</f>
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="17">
         <v>20</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="17">
         <v>100</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="20">
         <v>120</v>
@@ -5969,23 +5969,23 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -6004,28 +6004,28 @@
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="14">
         <v>100</v>
@@ -6035,14 +6035,14 @@
         <v>0</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="14">
         <v>50</v>
@@ -6052,14 +6052,14 @@
         <v>0</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="14">
         <v>200</v>
@@ -6079,7 +6079,7 @@
     <row r="37" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
       <c r="B37" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="14">
         <v>200</v>
@@ -6099,7 +6099,7 @@
     <row r="38" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
       <c r="B38" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="14">
         <v>50</v>
@@ -6119,7 +6119,7 @@
     <row r="39" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="14">
         <v>50</v>
@@ -6139,7 +6139,7 @@
     <row r="40" spans="1:6" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
       <c r="B40" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="14">
         <v>200</v>
@@ -6158,47 +6158,47 @@
     </row>
     <row r="43" spans="1:6" s="10" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="C43" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="C45" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="17">
         <v>10</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="17">
         <v>8</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="17">
         <v>2</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="20">
         <f>SUM(C46:C48)</f>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="30">
         <f>(D47+D48)/12</f>
@@ -6241,61 +6241,61 @@
     </row>
     <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B61" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="17">
         <v>20</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B63" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="17">
         <v>8</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B64" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="17">
         <v>4</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B65" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" s="17">
         <v>48</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="20">
         <f>SUM(C62:C65)</f>
@@ -6341,65 +6341,65 @@
     </row>
     <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" s="30">
         <f>(D63+D64)/12</f>
         <v>0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69" s="30">
         <f>D65/12</f>
         <v>0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B75" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="17">
         <v>50</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B76" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" s="17">
         <v>7</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="17">
         <v>3</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B78" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C78" s="20">
         <v>60</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B80" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" s="30">
         <f>(D76+D77)/12</f>
@@ -6441,67 +6441,67 @@
     </row>
     <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B82" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B83" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B84" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B89" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B90" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" s="17">
         <v>60</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B91" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="17">
         <v>2.5</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="17">
         <v>1</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B93" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" s="17">
         <v>30</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B94" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C94" s="20">
         <f>SUM(C90:C93)</f>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C96" s="30">
         <f>(D92+D93)/12</f>
@@ -6544,28 +6544,28 @@
     </row>
     <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B100" s="14"/>
       <c r="C100" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="17">
         <v>3</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C103" s="30">
         <f>(D101)/12</f>
@@ -6586,44 +6586,44 @@
     </row>
     <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="31" t="s">
         <v>99</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B108" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="D108" s="22">
         <f>+$D$9</f>
         <v>0</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B109" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="17">
         <v>7.5</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B110" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="17">
         <v>12.5</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B111" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="17">
         <v>5</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B112" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C112" s="20">
         <f>SUM(C109:C111)</f>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="114" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B114" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C114" s="30">
         <f>(D110+D111)/12</f>
